--- a/TestMNIST/MatlabCodes/temp_3.xlsx
+++ b/TestMNIST/MatlabCodes/temp_3.xlsx
@@ -401,616 +401,3032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV2"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV2"/>
+      <selection sqref="A1:CV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-5.1639133324814334E-9</v>
+        <v>-3.1964830088792875E-3</v>
       </c>
       <c r="B1">
-        <v>-5.1199208661100341E-9</v>
+        <v>-2.8163725484499111E-3</v>
       </c>
       <c r="C1">
-        <v>-4.9482469434098661E-9</v>
+        <v>-2.604445355870429E-3</v>
       </c>
       <c r="D1">
-        <v>-5.1561299687204572E-9</v>
+        <v>-2.4426959088267408E-3</v>
       </c>
       <c r="E1">
-        <v>-5.2328717461022283E-9</v>
+        <v>-2.628002215810873E-3</v>
       </c>
       <c r="F1">
-        <v>-5.1507833183736109E-9</v>
+        <v>-2.9829789035491759E-3</v>
       </c>
       <c r="G1">
-        <v>-4.9957307126058155E-9</v>
+        <v>-2.8327240954491655E-3</v>
       </c>
       <c r="H1">
-        <v>-5.1055150999013203E-9</v>
+        <v>-2.5705232951414871E-3</v>
       </c>
       <c r="I1">
-        <v>-4.9361574223149573E-9</v>
+        <v>-2.6019371130913075E-3</v>
       </c>
       <c r="J1">
-        <v>-5.2544229086510918E-9</v>
+        <v>-2.8757305884643397E-3</v>
       </c>
       <c r="K1">
-        <v>-5.0907658803477153E-9</v>
+        <v>-2.6422305162567589E-3</v>
       </c>
       <c r="L1">
-        <v>-5.0040533492271512E-9</v>
+        <v>-2.6892223556063181E-3</v>
       </c>
       <c r="M1">
-        <v>-5.1450435492117438E-9</v>
+        <v>-2.85440144403108E-3</v>
       </c>
       <c r="N1">
-        <v>-5.1153457599237611E-9</v>
+        <v>-3.0736743211395566E-3</v>
       </c>
       <c r="O1">
-        <v>-5.1105877690207547E-9</v>
+        <v>-2.4703573340396881E-3</v>
       </c>
       <c r="P1">
-        <v>-5.1401025841953418E-9</v>
+        <v>-3.272048109467155E-3</v>
       </c>
       <c r="Q1">
-        <v>-5.206180464866291E-9</v>
+        <v>-3.0719382333040035E-3</v>
       </c>
       <c r="R1">
-        <v>-4.9630033895061532E-9</v>
+        <v>-3.1060759679116235E-3</v>
       </c>
       <c r="S1">
-        <v>-5.013426137619171E-9</v>
+        <v>-3.0812331875757428E-3</v>
       </c>
       <c r="T1">
-        <v>-5.2637924580956341E-9</v>
+        <v>-3.1030600626722193E-3</v>
       </c>
       <c r="U1">
-        <v>-4.9945352637334499E-9</v>
+        <v>-2.5344235532339444E-3</v>
       </c>
       <c r="V1">
-        <v>-5.0113740229545543E-9</v>
+        <v>-2.7160030951285654E-3</v>
       </c>
       <c r="W1">
-        <v>-5.1732628805277611E-9</v>
+        <v>-3.4327131173720309E-3</v>
       </c>
       <c r="X1">
-        <v>-5.040602814147721E-9</v>
+        <v>-2.7497080377105456E-3</v>
       </c>
       <c r="Y1">
-        <v>-5.1760047410322564E-9</v>
+        <v>-2.6232044643946153E-3</v>
       </c>
       <c r="Z1">
-        <v>-5.0688837605276293E-9</v>
+        <v>-3.0011831960033465E-3</v>
       </c>
       <c r="AA1">
-        <v>-5.1654802410026385E-9</v>
+        <v>-2.4181077934929893E-3</v>
       </c>
       <c r="AB1">
-        <v>-5.0611931137557077E-9</v>
+        <v>-2.5484470690874846E-3</v>
       </c>
       <c r="AC1">
-        <v>-5.1066352405974233E-9</v>
+        <v>-3.0609510859530564E-3</v>
       </c>
       <c r="AD1">
-        <v>-5.0483836932213184E-9</v>
+        <v>-2.6449964105174036E-3</v>
       </c>
       <c r="AE1">
-        <v>-5.0294168396602585E-9</v>
+        <v>-2.6184609159886395E-3</v>
       </c>
       <c r="AF1">
-        <v>-5.1956701344944214E-9</v>
+        <v>-2.7055413488314651E-3</v>
       </c>
       <c r="AG1">
-        <v>-4.9969633387992151E-9</v>
+        <v>-2.5019778809592516E-3</v>
       </c>
       <c r="AH1">
-        <v>-5.0822263171922664E-9</v>
+        <v>-2.5021901139603876E-3</v>
       </c>
       <c r="AI1">
-        <v>-5.1166160584305525E-9</v>
+        <v>-3.0119700769745922E-3</v>
       </c>
       <c r="AJ1">
-        <v>-5.1023348498876722E-9</v>
+        <v>-2.6438491967353461E-3</v>
       </c>
       <c r="AK1">
-        <v>-4.9907716361000196E-9</v>
+        <v>-2.9171411026401623E-3</v>
       </c>
       <c r="AL1">
-        <v>-5.0971976452527702E-9</v>
+        <v>-2.4346788942804184E-3</v>
       </c>
       <c r="AM1">
-        <v>-5.1696163561787623E-9</v>
+        <v>-2.5962330696562806E-3</v>
       </c>
       <c r="AN1">
-        <v>-5.1095317745801554E-9</v>
+        <v>-2.548857211901494E-3</v>
       </c>
       <c r="AO1">
-        <v>-5.076873247071357E-9</v>
+        <v>-2.4751394230690784E-3</v>
       </c>
       <c r="AP1">
-        <v>-5.1112835586664065E-9</v>
+        <v>-2.5497304749818495E-3</v>
       </c>
       <c r="AQ1">
-        <v>-5.0198059933179844E-9</v>
+        <v>-2.7314385554139562E-3</v>
       </c>
       <c r="AR1">
-        <v>-4.9661545981839829E-9</v>
+        <v>-2.5086593967564262E-3</v>
       </c>
       <c r="AS1">
-        <v>-5.0985288029918736E-9</v>
+        <v>-2.4990840575663722E-3</v>
       </c>
       <c r="AT1">
-        <v>-5.088327128669577E-9</v>
+        <v>-3.5438294093963372E-3</v>
       </c>
       <c r="AU1">
-        <v>-5.0847007958660287E-9</v>
+        <v>-3.007944939648313E-3</v>
       </c>
       <c r="AV1">
-        <v>-5.1285659245284981E-9</v>
+        <v>-2.7403991994367906E-3</v>
       </c>
       <c r="AW1">
-        <v>-4.9775792144875926E-9</v>
+        <v>-2.6020366463805592E-3</v>
       </c>
       <c r="AX1">
-        <v>-5.1505209920980929E-9</v>
+        <v>-2.614525164239421E-3</v>
       </c>
       <c r="AY1">
-        <v>-4.8814202553323577E-9</v>
+        <v>-2.7899303269564488E-3</v>
       </c>
       <c r="AZ1">
-        <v>-4.9475196405477821E-9</v>
+        <v>-2.9765525056506654E-3</v>
       </c>
       <c r="BA1">
-        <v>-5.1051338736419201E-9</v>
+        <v>-3.0406467220510497E-3</v>
       </c>
       <c r="BB1">
-        <v>-4.9823569997505885E-9</v>
+        <v>-2.7002173377973764E-3</v>
       </c>
       <c r="BC1">
-        <v>-5.0494689540332318E-9</v>
+        <v>-3.0259546976304508E-3</v>
       </c>
       <c r="BD1">
-        <v>-5.2046079763721078E-9</v>
+        <v>-3.0850778196222705E-3</v>
       </c>
       <c r="BE1">
-        <v>-5.2127378071699255E-9</v>
+        <v>-2.4782433318147066E-3</v>
       </c>
       <c r="BF1">
-        <v>-5.2477428808919277E-9</v>
+        <v>-3.1659212317375523E-3</v>
       </c>
       <c r="BG1">
-        <v>-5.169194101439461E-9</v>
+        <v>-2.9058887811358926E-3</v>
       </c>
       <c r="BH1">
-        <v>-5.0949098242916324E-9</v>
+        <v>-2.5938693049056315E-3</v>
       </c>
       <c r="BI1">
-        <v>-5.2712155973195805E-9</v>
+        <v>-2.6125930790132641E-3</v>
       </c>
       <c r="BJ1">
-        <v>-4.9381930114598864E-9</v>
+        <v>-2.3960101040877277E-3</v>
       </c>
       <c r="BK1">
-        <v>-5.0030777241885968E-9</v>
+        <v>-3.2394263539594634E-3</v>
       </c>
       <c r="BL1">
-        <v>-5.0365111199881035E-9</v>
+        <v>-2.4767546763890219E-3</v>
       </c>
       <c r="BM1">
-        <v>-5.0982504302151243E-9</v>
+        <v>-3.3019395803600346E-3</v>
       </c>
       <c r="BN1">
-        <v>-5.204271023795265E-9</v>
+        <v>-2.61490140416545E-3</v>
       </c>
       <c r="BO1">
-        <v>-5.1446895615709509E-9</v>
+        <v>-2.7784310108761546E-3</v>
       </c>
       <c r="BP1">
-        <v>-5.0982796289268635E-9</v>
+        <v>-2.6313607588222183E-3</v>
       </c>
       <c r="BQ1">
-        <v>-4.9534118258202653E-9</v>
+        <v>-3.1291055824782571E-3</v>
       </c>
       <c r="BR1">
-        <v>-5.0608402388105601E-9</v>
+        <v>-3.0046698282367047E-3</v>
       </c>
       <c r="BS1">
-        <v>-5.0898547019963843E-9</v>
+        <v>-2.5038325558526227E-3</v>
       </c>
       <c r="BT1">
-        <v>-4.9291298073941624E-9</v>
+        <v>-3.4603696439466643E-3</v>
       </c>
       <c r="BU1">
-        <v>-4.9856148366159104E-9</v>
+        <v>-3.1319287023750518E-3</v>
       </c>
       <c r="BV1">
-        <v>-5.1853958194841907E-9</v>
+        <v>-2.7371706702572596E-3</v>
       </c>
       <c r="BW1">
-        <v>-5.0926668327147949E-9</v>
+        <v>-2.8581650323394321E-3</v>
       </c>
       <c r="BX1">
-        <v>-4.9086259502039217E-9</v>
+        <v>-2.5995004546233201E-3</v>
       </c>
       <c r="BY1">
-        <v>-5.1339089258705979E-9</v>
+        <v>-2.6699930129691742E-3</v>
       </c>
       <c r="BZ1">
-        <v>-4.9801335607608134E-9</v>
+        <v>-2.5857610188169408E-3</v>
       </c>
       <c r="CA1">
-        <v>-5.2405959993639054E-9</v>
+        <v>-2.6698575193747774E-3</v>
       </c>
       <c r="CB1">
-        <v>-5.0959797340323767E-9</v>
+        <v>-2.5602218348755629E-3</v>
       </c>
       <c r="CC1">
-        <v>-4.9274441940120919E-9</v>
+        <v>-3.2632418045439528E-3</v>
       </c>
       <c r="CD1">
-        <v>-5.1926917015750362E-9</v>
+        <v>-2.791058506811518E-3</v>
       </c>
       <c r="CE1">
-        <v>-5.2653716037878946E-9</v>
+        <v>-2.4918526248421994E-3</v>
       </c>
       <c r="CF1">
-        <v>-5.0445655648809225E-9</v>
+        <v>-2.567918434226716E-3</v>
       </c>
       <c r="CG1">
-        <v>-5.0301022962546889E-9</v>
+        <v>-3.6608346532309736E-3</v>
       </c>
       <c r="CH1">
-        <v>-4.8739525631687138E-9</v>
+        <v>-2.5755217116950478E-3</v>
       </c>
       <c r="CI1">
-        <v>-5.0888073793014975E-9</v>
+        <v>-2.4886042744165348E-3</v>
       </c>
       <c r="CJ1">
-        <v>-4.9777845457184047E-9</v>
+        <v>-3.3310672345083546E-3</v>
       </c>
       <c r="CK1">
-        <v>-4.9811600510694666E-9</v>
+        <v>-2.5602023575721149E-3</v>
       </c>
       <c r="CL1">
-        <v>-5.1166573234143841E-9</v>
+        <v>-2.5493468116816694E-3</v>
       </c>
       <c r="CM1">
-        <v>-5.1707375379055138E-9</v>
+        <v>-2.6373608486909106E-3</v>
       </c>
       <c r="CN1">
-        <v>-5.1198719348253893E-9</v>
+        <v>-2.4960406234802441E-3</v>
       </c>
       <c r="CO1">
-        <v>-5.1404977644953913E-9</v>
+        <v>-2.520569845113587E-3</v>
       </c>
       <c r="CP1">
-        <v>-5.1166211060503551E-9</v>
+        <v>-3.3970929937363246E-3</v>
       </c>
       <c r="CQ1">
-        <v>-5.0742448560500072E-9</v>
+        <v>-2.9309747322127781E-3</v>
       </c>
       <c r="CR1">
-        <v>-5.0779392292867404E-9</v>
+        <v>-2.7429533132025115E-3</v>
       </c>
       <c r="CS1">
-        <v>-5.0770141521485356E-9</v>
+        <v>-2.7992314015863363E-3</v>
       </c>
       <c r="CT1">
-        <v>-5.2599419030336437E-9</v>
+        <v>-2.5328427588845594E-3</v>
       </c>
       <c r="CU1">
-        <v>-5.0484372757268229E-9</v>
+        <v>-3.7805135970327246E-3</v>
       </c>
       <c r="CV1">
-        <v>-5.3628707450547437E-9</v>
+        <v>-2.8816958308802649E-3</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-4.8231568348560914E-9</v>
+        <v>-3.0793316117410478E-3</v>
       </c>
       <c r="B2">
-        <v>-4.7820673380834965E-9</v>
+        <v>-2.9137519869666013E-3</v>
       </c>
       <c r="C2">
-        <v>-4.6217218541997885E-9</v>
+        <v>-2.5615515007766129E-3</v>
       </c>
       <c r="D2">
-        <v>-4.815887071229862E-9</v>
+        <v>-2.4834140954298864E-3</v>
       </c>
       <c r="E2">
-        <v>-4.8875648075780927E-9</v>
+        <v>-2.6971612967924483E-3</v>
       </c>
       <c r="F2">
-        <v>-4.8108932457770278E-9</v>
+        <v>-2.8871357882659984E-3</v>
       </c>
       <c r="G2">
-        <v>-4.6660722425872549E-9</v>
+        <v>-2.7572129047795388E-3</v>
       </c>
       <c r="H2">
-        <v>-4.7686121839258492E-9</v>
+        <v>-2.6483335189643065E-3</v>
       </c>
       <c r="I2">
-        <v>-4.610430093218159E-9</v>
+        <v>-2.6424475050725147E-3</v>
       </c>
       <c r="J2">
-        <v>-4.9076938572890362E-9</v>
+        <v>-2.9881820094638896E-3</v>
       </c>
       <c r="K2">
-        <v>-4.7548362320288603E-9</v>
+        <v>-2.5964578402029588E-3</v>
       </c>
       <c r="L2">
-        <v>-4.6738456948876522E-9</v>
+        <v>-2.774622045335704E-3</v>
       </c>
       <c r="M2">
-        <v>-4.8055322316754761E-9</v>
+        <v>-2.9648509165606809E-3</v>
       </c>
       <c r="N2">
-        <v>-4.777794149944624E-9</v>
+        <v>-2.9730401683589831E-3</v>
       </c>
       <c r="O2">
-        <v>-4.7733501178460171E-9</v>
+        <v>-2.4968060893504592E-3</v>
       </c>
       <c r="P2">
-        <v>-4.8009173041684116E-9</v>
+        <v>-3.1592940408466273E-3</v>
       </c>
       <c r="Q2">
-        <v>-4.8626348407191837E-9</v>
+        <v>-2.9606250810393889E-3</v>
       </c>
       <c r="R2">
-        <v>-4.6355045330512845E-9</v>
+        <v>-3.0010652569174272E-3</v>
       </c>
       <c r="S2">
-        <v>-4.6825999951435055E-9</v>
+        <v>-3.2137851164214205E-3</v>
       </c>
       <c r="T2">
-        <v>-4.9164451343390428E-9</v>
+        <v>-3.2386030324943211E-3</v>
       </c>
       <c r="U2">
-        <v>-4.6649556904109094E-9</v>
+        <v>-2.5860982007486861E-3</v>
       </c>
       <c r="V2">
-        <v>-4.6806832769728566E-9</v>
+        <v>-2.7969931904030876E-3</v>
       </c>
       <c r="W2">
-        <v>-4.8318894152121031E-9</v>
+        <v>-3.3030757953495557E-3</v>
       </c>
       <c r="X2">
-        <v>-4.7079833292202911E-9</v>
+        <v>-2.6810813252009006E-3</v>
       </c>
       <c r="Y2">
-        <v>-4.8344503479560616E-9</v>
+        <v>-2.5737969217844046E-3</v>
       </c>
       <c r="Z2">
-        <v>-4.7343980705664901E-9</v>
+        <v>-2.9021057027783796E-3</v>
       </c>
       <c r="AA2">
-        <v>-4.8246203420738015E-9</v>
+        <v>-2.4180932862791164E-3</v>
       </c>
       <c r="AB2">
-        <v>-4.7272149204556767E-9</v>
+        <v>-2.5507629921053213E-3</v>
       </c>
       <c r="AC2">
-        <v>-4.7696584072074813E-9</v>
+        <v>-3.2043955159925968E-3</v>
       </c>
       <c r="AD2">
-        <v>-4.7152507691753321E-9</v>
+        <v>-2.5863320652096634E-3</v>
       </c>
       <c r="AE2">
-        <v>-4.69753550518766E-9</v>
+        <v>-2.5762375181508307E-3</v>
       </c>
       <c r="AF2">
-        <v>-4.8528180489086985E-9</v>
+        <v>-2.6358592461282414E-3</v>
       </c>
       <c r="AG2">
-        <v>-4.6672235485306739E-9</v>
+        <v>-2.4842108213467126E-3</v>
       </c>
       <c r="AH2">
-        <v>-4.7468601783673281E-9</v>
+        <v>-2.4808084592226809E-3</v>
       </c>
       <c r="AI2">
-        <v>-4.7789806181069668E-9</v>
+        <v>-2.9145453784001876E-3</v>
       </c>
       <c r="AJ2">
-        <v>-4.7656417978374102E-9</v>
+        <v>-2.622142158875003E-3</v>
       </c>
       <c r="AK2">
-        <v>-4.66144040781028E-9</v>
+        <v>-3.0441198281391207E-3</v>
       </c>
       <c r="AL2">
-        <v>-4.7608435877466975E-9</v>
+        <v>-2.4491204437111541E-3</v>
       </c>
       <c r="AM2">
-        <v>-4.8284835417748838E-9</v>
+        <v>-2.5489000862619926E-3</v>
       </c>
       <c r="AN2">
-        <v>-4.772363808015906E-9</v>
+        <v>-2.6015944857505332E-3</v>
       </c>
       <c r="AO2">
-        <v>-4.7418603360845082E-9</v>
+        <v>-2.4993642386292999E-3</v>
       </c>
       <c r="AP2">
-        <v>-4.7739999914094285E-9</v>
+        <v>-2.5361033724867685E-3</v>
       </c>
       <c r="AQ2">
-        <v>-4.6885588502708088E-9</v>
+        <v>-2.6794788945105567E-3</v>
       </c>
       <c r="AR2">
-        <v>-4.6384478236516178E-9</v>
+        <v>-2.5016998317037072E-3</v>
       </c>
       <c r="AS2">
-        <v>-4.7620868911948223E-9</v>
+        <v>-2.5372233543988882E-3</v>
       </c>
       <c r="AT2">
-        <v>-4.7525584086231845E-9</v>
+        <v>-3.7231214539086227E-3</v>
       </c>
       <c r="AU2">
-        <v>-4.7491713731681379E-9</v>
+        <v>-3.1455907191885869E-3</v>
       </c>
       <c r="AV2">
-        <v>-4.7901419399467156E-9</v>
+        <v>-2.8418474365827545E-3</v>
       </c>
       <c r="AW2">
-        <v>-4.6491185458140291E-9</v>
+        <v>-2.5549125546909107E-3</v>
       </c>
       <c r="AX2">
-        <v>-4.81064822627181E-9</v>
+        <v>-2.5755761690310526E-3</v>
       </c>
       <c r="AY2">
-        <v>-4.5593049172383696E-9</v>
+        <v>-2.9019337084214658E-3</v>
       </c>
       <c r="AZ2">
-        <v>-4.6210425395159001E-9</v>
+        <v>-3.0997718106527011E-3</v>
       </c>
       <c r="BA2">
-        <v>-4.7682561150863597E-9</v>
+        <v>-3.16809175635551E-3</v>
       </c>
       <c r="BB2">
-        <v>-4.6535810416628684E-9</v>
+        <v>-2.7895757576526423E-3</v>
       </c>
       <c r="BC2">
-        <v>-4.7162644000468446E-9</v>
+        <v>-2.9380454389326921E-3</v>
       </c>
       <c r="BD2">
-        <v>-4.8611661167085625E-9</v>
+        <v>-2.9738853401456407E-3</v>
       </c>
       <c r="BE2">
-        <v>-4.868759471022102E-9</v>
+        <v>-2.501898360455398E-3</v>
       </c>
       <c r="BF2">
-        <v>-4.9014546309430289E-9</v>
+        <v>-3.0523221795746669E-3</v>
       </c>
       <c r="BG2">
-        <v>-4.828089124872166E-9</v>
+        <v>-3.0234336876839114E-3</v>
       </c>
       <c r="BH2">
-        <v>-4.7587067251567336E-9</v>
+        <v>-2.5425394615524563E-3</v>
       </c>
       <c r="BI2">
-        <v>-4.9233784238767763E-9</v>
+        <v>-2.5635781658177401E-3</v>
       </c>
       <c r="BJ2">
-        <v>-4.6123313500445031E-9</v>
+        <v>-2.4146118110221415E-3</v>
       </c>
       <c r="BK2">
-        <v>-4.6729344501784986E-9</v>
+        <v>-3.1225613774648513E-3</v>
       </c>
       <c r="BL2">
-        <v>-4.704161633962421E-9</v>
+        <v>-2.4772264977926109E-3</v>
       </c>
       <c r="BM2">
-        <v>-4.7618268983992956E-9</v>
+        <v>-3.1704189917338759E-3</v>
       </c>
       <c r="BN2">
-        <v>-4.860851394690648E-9</v>
+        <v>-2.570920966566791E-3</v>
       </c>
       <c r="BO2">
-        <v>-4.8052016053638432E-9</v>
+        <v>-2.8736391207682369E-3</v>
       </c>
       <c r="BP2">
-        <v>-4.7618541811516993E-9</v>
+        <v>-2.5878409681312116E-3</v>
       </c>
       <c r="BQ2">
-        <v>-4.6265459030621273E-9</v>
+        <v>-3.2706522796478268E-3</v>
       </c>
       <c r="BR2">
-        <v>-4.7268853220334435E-9</v>
+        <v>-3.1335136504633057E-3</v>
       </c>
       <c r="BS2">
-        <v>-4.7539851859118041E-9</v>
+        <v>-2.552140768974755E-3</v>
       </c>
       <c r="BT2">
-        <v>-4.6038662074360433E-9</v>
+        <v>-3.3198462512360671E-3</v>
       </c>
       <c r="BU2">
-        <v>-4.6566239024460607E-9</v>
+        <v>-3.0152825270408105E-3</v>
       </c>
       <c r="BV2">
-        <v>-4.843221740084396E-9</v>
+        <v>-2.6739401824131788E-3</v>
       </c>
       <c r="BW2">
-        <v>-4.7566117406908105E-9</v>
+        <v>-2.7682894761308025E-3</v>
       </c>
       <c r="BX2">
-        <v>-4.584715358808569E-9</v>
+        <v>-2.5535253525731756E-3</v>
       </c>
       <c r="BY2">
-        <v>-4.7951323521287709E-9</v>
+        <v>-2.6103890976729807E-3</v>
       </c>
       <c r="BZ2">
-        <v>-4.6515043301909832E-9</v>
+        <v>-2.5403957577890247E-3</v>
       </c>
       <c r="CA2">
-        <v>-4.8947793573068347E-9</v>
+        <v>-2.6738654601715542E-3</v>
       </c>
       <c r="CB2">
-        <v>-4.7597060335961497E-9</v>
+        <v>-2.6069528127167295E-3</v>
       </c>
       <c r="CC2">
-        <v>-4.602291818789176E-9</v>
+        <v>-3.4252654916321419E-3</v>
       </c>
       <c r="CD2">
-        <v>-4.8500361677541385E-9</v>
+        <v>-2.718702566312041E-3</v>
       </c>
       <c r="CE2">
-        <v>-4.9179200689859184E-9</v>
+        <v>-2.5144018139359814E-3</v>
       </c>
       <c r="CF2">
-        <v>-4.7116845969796797E-9</v>
+        <v>-2.5648831572037925E-3</v>
       </c>
       <c r="CG2">
-        <v>-4.6981757115556824E-9</v>
+        <v>-3.5178106752835354E-3</v>
       </c>
       <c r="CH2">
-        <v>-4.5523300010846093E-9</v>
+        <v>-2.522438791311336E-3</v>
       </c>
       <c r="CI2">
-        <v>-4.7530069613210678E-9</v>
+        <v>-2.5134459304188665E-3</v>
       </c>
       <c r="CJ2">
-        <v>-4.6493103125416591E-9</v>
+        <v>-3.4867967066069135E-3</v>
       </c>
       <c r="CK2">
-        <v>-4.6524630734279863E-9</v>
+        <v>-2.6005662517168296E-3</v>
       </c>
       <c r="CL2">
-        <v>-4.7790191552024636E-9</v>
+        <v>-2.529478204497379E-3</v>
       </c>
       <c r="CM2">
-        <v>-4.8295307271592274E-9</v>
+        <v>-2.6737345118596893E-3</v>
       </c>
       <c r="CN2">
-        <v>-4.7820216491452185E-9</v>
+        <v>-2.4883299246602707E-3</v>
       </c>
       <c r="CO2">
-        <v>-4.801286423129586E-9</v>
+        <v>-2.5069885994131211E-3</v>
       </c>
       <c r="CP2">
-        <v>-4.7789853244669789E-9</v>
+        <v>-3.2560630397199465E-3</v>
       </c>
       <c r="CQ2">
-        <v>-4.7394053978417316E-9</v>
+        <v>-3.0506075120030514E-3</v>
       </c>
       <c r="CR2">
-        <v>-4.7428559964997549E-9</v>
+        <v>-2.8413165060938691E-3</v>
       </c>
       <c r="CS2">
-        <v>-4.741991949324858E-9</v>
+        <v>-2.906866948571419E-3</v>
       </c>
       <c r="CT2">
-        <v>-4.9128486707161599E-9</v>
+        <v>-2.5292772652397923E-3</v>
       </c>
       <c r="CU2">
-        <v>-4.7153008212821217E-9</v>
+        <v>-3.9728699371519979E-3</v>
       </c>
       <c r="CV2">
-        <v>-5.0089854329061181E-9</v>
+        <v>-2.995215453156693E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-3.1666903660978597E-3</v>
+      </c>
+      <c r="B3">
+        <v>-2.8197631037313329E-3</v>
+      </c>
+      <c r="C3">
+        <v>-2.6033988644777093E-3</v>
+      </c>
+      <c r="D3">
+        <v>-2.4505810231059714E-3</v>
+      </c>
+      <c r="E3">
+        <v>-2.6386297338350114E-3</v>
+      </c>
+      <c r="F3">
+        <v>-2.9489183608699407E-3</v>
+      </c>
+      <c r="G3">
+        <v>-2.8136765049270977E-3</v>
+      </c>
+      <c r="H3">
+        <v>-2.5899775853369189E-3</v>
+      </c>
+      <c r="I3">
+        <v>-2.5831694770973948E-3</v>
+      </c>
+      <c r="J3">
+        <v>-2.9028391656004105E-3</v>
+      </c>
+      <c r="K3">
+        <v>-2.6400346998378499E-3</v>
+      </c>
+      <c r="L3">
+        <v>-2.7076149170570641E-3</v>
+      </c>
+      <c r="M3">
+        <v>-2.8838624445051641E-3</v>
+      </c>
+      <c r="N3">
+        <v>-3.0648168992304116E-3</v>
+      </c>
+      <c r="O3">
+        <v>-2.4633220981042929E-3</v>
+      </c>
+      <c r="P3">
+        <v>-3.2464752491134651E-3</v>
+      </c>
+      <c r="Q3">
+        <v>-3.0478701746310061E-3</v>
+      </c>
+      <c r="R3">
+        <v>-3.0733194769129286E-3</v>
+      </c>
+      <c r="S3">
+        <v>-3.0917904184864374E-3</v>
+      </c>
+      <c r="T3">
+        <v>-3.1264281394522051E-3</v>
+      </c>
+      <c r="U3">
+        <v>-2.5546873272438444E-3</v>
+      </c>
+      <c r="V3">
+        <v>-2.7182400242042387E-3</v>
+      </c>
+      <c r="W3">
+        <v>-3.4014481332929631E-3</v>
+      </c>
+      <c r="X3">
+        <v>-2.7188662922138056E-3</v>
+      </c>
+      <c r="Y3">
+        <v>-2.6178378417360988E-3</v>
+      </c>
+      <c r="Z3">
+        <v>-2.9757856806783673E-3</v>
+      </c>
+      <c r="AA3">
+        <v>-2.408894919054588E-3</v>
+      </c>
+      <c r="AB3">
+        <v>-2.5320341937754521E-3</v>
+      </c>
+      <c r="AC3">
+        <v>-3.0831017223691432E-3</v>
+      </c>
+      <c r="AD3">
+        <v>-2.637330046577846E-3</v>
+      </c>
+      <c r="AE3">
+        <v>-2.6218622336560411E-3</v>
+      </c>
+      <c r="AF3">
+        <v>-2.6803941760151682E-3</v>
+      </c>
+      <c r="AG3">
+        <v>-2.4930445765966886E-3</v>
+      </c>
+      <c r="AH3">
+        <v>-2.4864580914703066E-3</v>
+      </c>
+      <c r="AI3">
+        <v>-2.981928420402249E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>-2.6191098499852047E-3</v>
+      </c>
+      <c r="AK3">
+        <v>-2.9373657186260106E-3</v>
+      </c>
+      <c r="AL3">
+        <v>-2.4456832236772474E-3</v>
+      </c>
+      <c r="AM3">
+        <v>-2.5798667170811311E-3</v>
+      </c>
+      <c r="AN3">
+        <v>-2.5749393719136835E-3</v>
+      </c>
+      <c r="AO3">
+        <v>-2.4691716195147403E-3</v>
+      </c>
+      <c r="AP3">
+        <v>-2.5366610127463291E-3</v>
+      </c>
+      <c r="AQ3">
+        <v>-2.737123494207279E-3</v>
+      </c>
+      <c r="AR3">
+        <v>-2.5070272128272595E-3</v>
+      </c>
+      <c r="AS3">
+        <v>-2.4923059216540519E-3</v>
+      </c>
+      <c r="AT3">
+        <v>-3.5746793210891374E-3</v>
+      </c>
+      <c r="AU3">
+        <v>-3.0393363056879538E-3</v>
+      </c>
+      <c r="AV3">
+        <v>-2.7641008545948287E-3</v>
+      </c>
+      <c r="AW3">
+        <v>-2.5809200533989602E-3</v>
+      </c>
+      <c r="AX3">
+        <v>-2.6141084257884583E-3</v>
+      </c>
+      <c r="AY3">
+        <v>-2.8161106620783016E-3</v>
+      </c>
+      <c r="AZ3">
+        <v>-2.9891342954289257E-3</v>
+      </c>
+      <c r="BA3">
+        <v>-3.0725021134797438E-3</v>
+      </c>
+      <c r="BB3">
+        <v>-2.725404402913671E-3</v>
+      </c>
+      <c r="BC3">
+        <v>-3.0298967790651802E-3</v>
+      </c>
+      <c r="BD3">
+        <v>-3.0678448721446652E-3</v>
+      </c>
+      <c r="BE3">
+        <v>-2.4845720040083986E-3</v>
+      </c>
+      <c r="BF3">
+        <v>-3.1480149006102797E-3</v>
+      </c>
+      <c r="BG3">
+        <v>-2.9329116538803746E-3</v>
+      </c>
+      <c r="BH3">
+        <v>-2.5848421551246865E-3</v>
+      </c>
+      <c r="BI3">
+        <v>-2.5899041299480524E-3</v>
+      </c>
+      <c r="BJ3">
+        <v>-2.4017313673832487E-3</v>
+      </c>
+      <c r="BK3">
+        <v>-3.2119383562288369E-3</v>
+      </c>
+      <c r="BL3">
+        <v>-2.48171761612723E-3</v>
+      </c>
+      <c r="BM3">
+        <v>-3.2722664559857941E-3</v>
+      </c>
+      <c r="BN3">
+        <v>-2.6096688959967736E-3</v>
+      </c>
+      <c r="BO3">
+        <v>-2.786064221189417E-3</v>
+      </c>
+      <c r="BP3">
+        <v>-2.6388977312797957E-3</v>
+      </c>
+      <c r="BQ3">
+        <v>-3.1455588143359252E-3</v>
+      </c>
+      <c r="BR3">
+        <v>-3.0157097995187907E-3</v>
+      </c>
+      <c r="BS3">
+        <v>-2.5051770036658505E-3</v>
+      </c>
+      <c r="BT3">
+        <v>-3.4247948541484162E-3</v>
+      </c>
+      <c r="BU3">
+        <v>-3.1000194413625245E-3</v>
+      </c>
+      <c r="BV3">
+        <v>-2.7086821934453774E-3</v>
+      </c>
+      <c r="BW3">
+        <v>-2.834436616470495E-3</v>
+      </c>
+      <c r="BX3">
+        <v>-2.5966525562873075E-3</v>
+      </c>
+      <c r="BY3">
+        <v>-2.6442543116774364E-3</v>
+      </c>
+      <c r="BZ3">
+        <v>-2.5648648970268829E-3</v>
+      </c>
+      <c r="CA3">
+        <v>-2.6525931196079953E-3</v>
+      </c>
+      <c r="CB3">
+        <v>-2.5843714635180428E-3</v>
+      </c>
+      <c r="CC3">
+        <v>-3.3005339759104579E-3</v>
+      </c>
+      <c r="CD3">
+        <v>-2.7845853501393273E-3</v>
+      </c>
+      <c r="CE3">
+        <v>-2.504410255206977E-3</v>
+      </c>
+      <c r="CF3">
+        <v>-2.566704610272987E-3</v>
+      </c>
+      <c r="CG3">
+        <v>-3.6309735520626092E-3</v>
+      </c>
+      <c r="CH3">
+        <v>-2.5583815642068238E-3</v>
+      </c>
+      <c r="CI3">
+        <v>-2.502252134708598E-3</v>
+      </c>
+      <c r="CJ3">
+        <v>-3.3475190808722158E-3</v>
+      </c>
+      <c r="CK3">
+        <v>-2.5806964864394629E-3</v>
+      </c>
+      <c r="CL3">
+        <v>-2.5358213982903505E-3</v>
+      </c>
+      <c r="CM3">
+        <v>-2.6317078199151463E-3</v>
+      </c>
+      <c r="CN3">
+        <v>-2.4733555498196772E-3</v>
+      </c>
+      <c r="CO3">
+        <v>-2.5131206803350138E-3</v>
+      </c>
+      <c r="CP3">
+        <v>-3.3639941187404766E-3</v>
+      </c>
+      <c r="CQ3">
+        <v>-2.9386634173950111E-3</v>
+      </c>
+      <c r="CR3">
+        <v>-2.7521500105175513E-3</v>
+      </c>
+      <c r="CS3">
+        <v>-2.8253643637195353E-3</v>
+      </c>
+      <c r="CT3">
+        <v>-2.5072681562026402E-3</v>
+      </c>
+      <c r="CU3">
+        <v>-3.7996226776943732E-3</v>
+      </c>
+      <c r="CV3">
+        <v>-2.9217591037850022E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-3.1741216031302309E-3</v>
+      </c>
+      <c r="B4">
+        <v>-2.8289278303315233E-3</v>
+      </c>
+      <c r="C4">
+        <v>-2.5922140360768024E-3</v>
+      </c>
+      <c r="D4">
+        <v>-2.452516921534512E-3</v>
+      </c>
+      <c r="E4">
+        <v>-2.6369105414605193E-3</v>
+      </c>
+      <c r="F4">
+        <v>-2.9582971642633238E-3</v>
+      </c>
+      <c r="G4">
+        <v>-2.8188765422826039E-3</v>
+      </c>
+      <c r="H4">
+        <v>-2.5869867845684505E-3</v>
+      </c>
+      <c r="I4">
+        <v>-2.6089358856507747E-3</v>
+      </c>
+      <c r="J4">
+        <v>-2.8961693640398843E-3</v>
+      </c>
+      <c r="K4">
+        <v>-2.6360168462095583E-3</v>
+      </c>
+      <c r="L4">
+        <v>-2.71181928874346E-3</v>
+      </c>
+      <c r="M4">
+        <v>-2.8740206583933517E-3</v>
+      </c>
+      <c r="N4">
+        <v>-3.0532588289028458E-3</v>
+      </c>
+      <c r="O4">
+        <v>-2.4784110761824477E-3</v>
+      </c>
+      <c r="P4">
+        <v>-3.2536800676194588E-3</v>
+      </c>
+      <c r="Q4">
+        <v>-3.0411546048068352E-3</v>
+      </c>
+      <c r="R4">
+        <v>-3.084911992007514E-3</v>
+      </c>
+      <c r="S4">
+        <v>-3.1011686182530018E-3</v>
+      </c>
+      <c r="T4">
+        <v>-3.1319222749265959E-3</v>
+      </c>
+      <c r="U4">
+        <v>-2.54488890402064E-3</v>
+      </c>
+      <c r="V4">
+        <v>-2.7363074930184328E-3</v>
+      </c>
+      <c r="W4">
+        <v>-3.4069947112676177E-3</v>
+      </c>
+      <c r="X4">
+        <v>-2.7337287103056935E-3</v>
+      </c>
+      <c r="Y4">
+        <v>-2.6130541709768226E-3</v>
+      </c>
+      <c r="Z4">
+        <v>-2.9765516117406564E-3</v>
+      </c>
+      <c r="AA4">
+        <v>-2.41531834366369E-3</v>
+      </c>
+      <c r="AB4">
+        <v>-2.5460848580630599E-3</v>
+      </c>
+      <c r="AC4">
+        <v>-3.0888131676073509E-3</v>
+      </c>
+      <c r="AD4">
+        <v>-2.6298111609178933E-3</v>
+      </c>
+      <c r="AE4">
+        <v>-2.604522028712987E-3</v>
+      </c>
+      <c r="AF4">
+        <v>-2.6851876254592711E-3</v>
+      </c>
+      <c r="AG4">
+        <v>-2.4956561652508288E-3</v>
+      </c>
+      <c r="AH4">
+        <v>-2.5015125094003925E-3</v>
+      </c>
+      <c r="AI4">
+        <v>-2.9933010534983115E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>-2.6268099361988232E-3</v>
+      </c>
+      <c r="AK4">
+        <v>-2.9431607902523655E-3</v>
+      </c>
+      <c r="AL4">
+        <v>-2.4380609566129188E-3</v>
+      </c>
+      <c r="AM4">
+        <v>-2.5788225178076437E-3</v>
+      </c>
+      <c r="AN4">
+        <v>-2.558339032301642E-3</v>
+      </c>
+      <c r="AO4">
+        <v>-2.4788826910323754E-3</v>
+      </c>
+      <c r="AP4">
+        <v>-2.5380464244648122E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>-2.724703186429445E-3</v>
+      </c>
+      <c r="AR4">
+        <v>-2.5042264120912153E-3</v>
+      </c>
+      <c r="AS4">
+        <v>-2.5027183019904124E-3</v>
+      </c>
+      <c r="AT4">
+        <v>-3.5778458851018556E-3</v>
+      </c>
+      <c r="AU4">
+        <v>-3.0360046351931512E-3</v>
+      </c>
+      <c r="AV4">
+        <v>-2.7584458784753602E-3</v>
+      </c>
+      <c r="AW4">
+        <v>-2.5823419464649274E-3</v>
+      </c>
+      <c r="AX4">
+        <v>-2.6098979277716741E-3</v>
+      </c>
+      <c r="AY4">
+        <v>-2.8140292762499838E-3</v>
+      </c>
+      <c r="AZ4">
+        <v>-2.9986948317539267E-3</v>
+      </c>
+      <c r="BA4">
+        <v>-3.0617564949272668E-3</v>
+      </c>
+      <c r="BB4">
+        <v>-2.7221879051611444E-3</v>
+      </c>
+      <c r="BC4">
+        <v>-3.0067237602035527E-3</v>
+      </c>
+      <c r="BD4">
+        <v>-3.0548216171790107E-3</v>
+      </c>
+      <c r="BE4">
+        <v>-2.4861358182124418E-3</v>
+      </c>
+      <c r="BF4">
+        <v>-3.142447025879905E-3</v>
+      </c>
+      <c r="BG4">
+        <v>-2.9267486178995018E-3</v>
+      </c>
+      <c r="BH4">
+        <v>-2.5831803569762767E-3</v>
+      </c>
+      <c r="BI4">
+        <v>-2.6007415648075165E-3</v>
+      </c>
+      <c r="BJ4">
+        <v>-2.3977440052573556E-3</v>
+      </c>
+      <c r="BK4">
+        <v>-3.2155163220705259E-3</v>
+      </c>
+      <c r="BL4">
+        <v>-2.4759357301223812E-3</v>
+      </c>
+      <c r="BM4">
+        <v>-3.2707418922401621E-3</v>
+      </c>
+      <c r="BN4">
+        <v>-2.6023766150332821E-3</v>
+      </c>
+      <c r="BO4">
+        <v>-2.7911597294934054E-3</v>
+      </c>
+      <c r="BP4">
+        <v>-2.621453248324206E-3</v>
+      </c>
+      <c r="BQ4">
+        <v>-3.1588989581919523E-3</v>
+      </c>
+      <c r="BR4">
+        <v>-3.0277121939759092E-3</v>
+      </c>
+      <c r="BS4">
+        <v>-2.5174808763807608E-3</v>
+      </c>
+      <c r="BT4">
+        <v>-3.4274170845533867E-3</v>
+      </c>
+      <c r="BU4">
+        <v>-3.1044561536101157E-3</v>
+      </c>
+      <c r="BV4">
+        <v>-2.7272132656599975E-3</v>
+      </c>
+      <c r="BW4">
+        <v>-2.836554143448077E-3</v>
+      </c>
+      <c r="BX4">
+        <v>-2.5860646622652126E-3</v>
+      </c>
+      <c r="BY4">
+        <v>-2.6544088990629162E-3</v>
+      </c>
+      <c r="BZ4">
+        <v>-2.5738908666117937E-3</v>
+      </c>
+      <c r="CA4">
+        <v>-2.6557368422576427E-3</v>
+      </c>
+      <c r="CB4">
+        <v>-2.571301762234161E-3</v>
+      </c>
+      <c r="CC4">
+        <v>-3.2947770933361522E-3</v>
+      </c>
+      <c r="CD4">
+        <v>-2.7733041676659249E-3</v>
+      </c>
+      <c r="CE4">
+        <v>-2.4947716609015104E-3</v>
+      </c>
+      <c r="CF4">
+        <v>-2.5583091638661831E-3</v>
+      </c>
+      <c r="CG4">
+        <v>-3.6362541143370526E-3</v>
+      </c>
+      <c r="CH4">
+        <v>-2.5618621219227256E-3</v>
+      </c>
+      <c r="CI4">
+        <v>-2.4918796969089457E-3</v>
+      </c>
+      <c r="CJ4">
+        <v>-3.355199483513178E-3</v>
+      </c>
+      <c r="CK4">
+        <v>-2.5691845387411289E-3</v>
+      </c>
+      <c r="CL4">
+        <v>-2.5410590921868511E-3</v>
+      </c>
+      <c r="CM4">
+        <v>-2.6332023699646846E-3</v>
+      </c>
+      <c r="CN4">
+        <v>-2.4965552042174508E-3</v>
+      </c>
+      <c r="CO4">
+        <v>-2.515699392566581E-3</v>
+      </c>
+      <c r="CP4">
+        <v>-3.3594342377574215E-3</v>
+      </c>
+      <c r="CQ4">
+        <v>-2.9567724705810666E-3</v>
+      </c>
+      <c r="CR4">
+        <v>-2.7609179525871735E-3</v>
+      </c>
+      <c r="CS4">
+        <v>-2.8208735146219833E-3</v>
+      </c>
+      <c r="CT4">
+        <v>-2.5320973639789768E-3</v>
+      </c>
+      <c r="CU4">
+        <v>-3.8179487657373314E-3</v>
+      </c>
+      <c r="CV4">
+        <v>-2.9049292482551548E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-3.1343384268462953E-3</v>
+      </c>
+      <c r="B5">
+        <v>-2.8610706622714185E-3</v>
+      </c>
+      <c r="C5">
+        <v>-2.5873192667965656E-3</v>
+      </c>
+      <c r="D5">
+        <v>-2.4641044748046747E-3</v>
+      </c>
+      <c r="E5">
+        <v>-2.6569939519195183E-3</v>
+      </c>
+      <c r="F5">
+        <v>-2.9212505855216605E-3</v>
+      </c>
+      <c r="G5">
+        <v>-2.7859150109350523E-3</v>
+      </c>
+      <c r="H5">
+        <v>-2.6110769920963369E-3</v>
+      </c>
+      <c r="I5">
+        <v>-2.6103571023990742E-3</v>
+      </c>
+      <c r="J5">
+        <v>-2.9341270953753759E-3</v>
+      </c>
+      <c r="K5">
+        <v>-2.6255418610645551E-3</v>
+      </c>
+      <c r="L5">
+        <v>-2.7311474796213194E-3</v>
+      </c>
+      <c r="M5">
+        <v>-2.9105821014103108E-3</v>
+      </c>
+      <c r="N5">
+        <v>-3.027138421301047E-3</v>
+      </c>
+      <c r="O5">
+        <v>-2.4769764157056384E-3</v>
+      </c>
+      <c r="P5">
+        <v>-3.2142277485771595E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-3.0176857581293141E-3</v>
+      </c>
+      <c r="R5">
+        <v>-3.0517577222394757E-3</v>
+      </c>
+      <c r="S5">
+        <v>-3.1448892918658775E-3</v>
+      </c>
+      <c r="T5">
+        <v>-3.1705823238444724E-3</v>
+      </c>
+      <c r="U5">
+        <v>-2.5671367557570731E-3</v>
+      </c>
+      <c r="V5">
+        <v>-2.7546191655162737E-3</v>
+      </c>
+      <c r="W5">
+        <v>-3.3619058072977886E-3</v>
+      </c>
+      <c r="X5">
+        <v>-2.7096623112260699E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-2.6065312826089979E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-2.9509543033700244E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-2.4162874384862859E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-2.5390911755461048E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-3.133662423607578E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-2.6164127425958297E-3</v>
+      </c>
+      <c r="AE5">
+        <v>-2.5970485750947611E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-2.6672651681430197E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-2.4970182279440978E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-2.4857049722751953E-3</v>
+      </c>
+      <c r="AI5">
+        <v>-2.9617292622877017E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>-2.6231399352913205E-3</v>
+      </c>
+      <c r="AK5">
+        <v>-2.9844009765587344E-3</v>
+      </c>
+      <c r="AL5">
+        <v>-2.4443020102934191E-3</v>
+      </c>
+      <c r="AM5">
+        <v>-2.5674708652012775E-3</v>
+      </c>
+      <c r="AN5">
+        <v>-2.5797909299193978E-3</v>
+      </c>
+      <c r="AO5">
+        <v>-2.4866527891415431E-3</v>
+      </c>
+      <c r="AP5">
+        <v>-2.5361719600386539E-3</v>
+      </c>
+      <c r="AQ5">
+        <v>-2.7095022698027204E-3</v>
+      </c>
+      <c r="AR5">
+        <v>-2.5131142834752544E-3</v>
+      </c>
+      <c r="AS5">
+        <v>-2.5116084586352073E-3</v>
+      </c>
+      <c r="AT5">
+        <v>-3.6351144251008122E-3</v>
+      </c>
+      <c r="AU5">
+        <v>-3.0818796692080276E-3</v>
+      </c>
+      <c r="AV5">
+        <v>-2.7943008743084954E-3</v>
+      </c>
+      <c r="AW5">
+        <v>-2.5717335557206155E-3</v>
+      </c>
+      <c r="AX5">
+        <v>-2.6003926846490219E-3</v>
+      </c>
+      <c r="AY5">
+        <v>-2.8491060283181166E-3</v>
+      </c>
+      <c r="AZ5">
+        <v>-3.0345472296391691E-3</v>
+      </c>
+      <c r="BA5">
+        <v>-3.105086950312527E-3</v>
+      </c>
+      <c r="BB5">
+        <v>-2.7449525023974398E-3</v>
+      </c>
+      <c r="BC5">
+        <v>-2.9873908610454736E-3</v>
+      </c>
+      <c r="BD5">
+        <v>-3.029312462352884E-3</v>
+      </c>
+      <c r="BE5">
+        <v>-2.4862857172007319E-3</v>
+      </c>
+      <c r="BF5">
+        <v>-3.1109776113281253E-3</v>
+      </c>
+      <c r="BG5">
+        <v>-2.9678664144852096E-3</v>
+      </c>
+      <c r="BH5">
+        <v>-2.569819462082967E-3</v>
+      </c>
+      <c r="BI5">
+        <v>-2.5857364313841809E-3</v>
+      </c>
+      <c r="BJ5">
+        <v>-2.4083251197468264E-3</v>
+      </c>
+      <c r="BK5">
+        <v>-3.1861947864767698E-3</v>
+      </c>
+      <c r="BL5">
+        <v>-2.4763737598897926E-3</v>
+      </c>
+      <c r="BM5">
+        <v>-3.2322077816685844E-3</v>
+      </c>
+      <c r="BN5">
+        <v>-2.5969662624471769E-3</v>
+      </c>
+      <c r="BO5">
+        <v>-2.8252586265764975E-3</v>
+      </c>
+      <c r="BP5">
+        <v>-2.6139140081061973E-3</v>
+      </c>
+      <c r="BQ5">
+        <v>-3.1966243448297775E-3</v>
+      </c>
+      <c r="BR5">
+        <v>-3.0651897647747455E-3</v>
+      </c>
+      <c r="BS5">
+        <v>-2.5219767602085489E-3</v>
+      </c>
+      <c r="BT5">
+        <v>-3.3909420774018194E-3</v>
+      </c>
+      <c r="BU5">
+        <v>-3.0728073859423934E-3</v>
+      </c>
+      <c r="BV5">
+        <v>-2.699305767851606E-3</v>
+      </c>
+      <c r="BW5">
+        <v>-2.8110180428280122E-3</v>
+      </c>
+      <c r="BX5">
+        <v>-2.5791452539336711E-3</v>
+      </c>
+      <c r="BY5">
+        <v>-2.6335919837416357E-3</v>
+      </c>
+      <c r="BZ5">
+        <v>-2.5529443305457077E-3</v>
+      </c>
+      <c r="CA5">
+        <v>-2.6645518731259242E-3</v>
+      </c>
+      <c r="CB5">
+        <v>-2.5933980715573198E-3</v>
+      </c>
+      <c r="CC5">
+        <v>-3.3481240897971472E-3</v>
+      </c>
+      <c r="CD5">
+        <v>-2.7624818689402559E-3</v>
+      </c>
+      <c r="CE5">
+        <v>-2.5060973266534448E-3</v>
+      </c>
+      <c r="CF5">
+        <v>-2.5620665435639035E-3</v>
+      </c>
+      <c r="CG5">
+        <v>-3.5896468654656364E-3</v>
+      </c>
+      <c r="CH5">
+        <v>-2.5451283931865742E-3</v>
+      </c>
+      <c r="CI5">
+        <v>-2.5014100991816255E-3</v>
+      </c>
+      <c r="CJ5">
+        <v>-3.4049810024350028E-3</v>
+      </c>
+      <c r="CK5">
+        <v>-2.5917825724159098E-3</v>
+      </c>
+      <c r="CL5">
+        <v>-2.5395745791389943E-3</v>
+      </c>
+      <c r="CM5">
+        <v>-2.6516769988876644E-3</v>
+      </c>
+      <c r="CN5">
+        <v>-2.4845036229662518E-3</v>
+      </c>
+      <c r="CO5">
+        <v>-2.5057494829315847E-3</v>
+      </c>
+      <c r="CP5">
+        <v>-3.326095291135105E-3</v>
+      </c>
+      <c r="CQ5">
+        <v>-2.9876036056382324E-3</v>
+      </c>
+      <c r="CR5">
+        <v>-2.7913356465448956E-3</v>
+      </c>
+      <c r="CS5">
+        <v>-2.854298167278039E-3</v>
+      </c>
+      <c r="CT5">
+        <v>-2.5192423625666626E-3</v>
+      </c>
+      <c r="CU5">
+        <v>-3.8731572011508741E-3</v>
+      </c>
+      <c r="CV5">
+        <v>-2.9455474179440177E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-3.1483727475880023E-3</v>
+      </c>
+      <c r="B6">
+        <v>-2.8407106223786809E-3</v>
+      </c>
+      <c r="C6">
+        <v>-2.5946710351517767E-3</v>
+      </c>
+      <c r="D6">
+        <v>-2.4580540466492507E-3</v>
+      </c>
+      <c r="E6">
+        <v>-2.6518209455518287E-3</v>
+      </c>
+      <c r="F6">
+        <v>-2.9397402868368487E-3</v>
+      </c>
+      <c r="G6">
+        <v>-2.8043194420925154E-3</v>
+      </c>
+      <c r="H6">
+        <v>-2.6024257031528244E-3</v>
+      </c>
+      <c r="I6">
+        <v>-2.6013600279663337E-3</v>
+      </c>
+      <c r="J6">
+        <v>-2.9199144214687753E-3</v>
+      </c>
+      <c r="K6">
+        <v>-2.6290302357173767E-3</v>
+      </c>
+      <c r="L6">
+        <v>-2.7240763666457465E-3</v>
+      </c>
+      <c r="M6">
+        <v>-2.9013127093252197E-3</v>
+      </c>
+      <c r="N6">
+        <v>-3.043149647144906E-3</v>
+      </c>
+      <c r="O6">
+        <v>-2.4740561672239939E-3</v>
+      </c>
+      <c r="P6">
+        <v>-3.2292787711226045E-3</v>
+      </c>
+      <c r="Q6">
+        <v>-3.0275706945243025E-3</v>
+      </c>
+      <c r="R6">
+        <v>-3.0595826476797999E-3</v>
+      </c>
+      <c r="S6">
+        <v>-3.1177140138586678E-3</v>
+      </c>
+      <c r="T6">
+        <v>-3.1514886170654647E-3</v>
+      </c>
+      <c r="U6">
+        <v>-2.5590922092500893E-3</v>
+      </c>
+      <c r="V6">
+        <v>-2.7372640300085591E-3</v>
+      </c>
+      <c r="W6">
+        <v>-3.3823520614770144E-3</v>
+      </c>
+      <c r="X6">
+        <v>-2.712174448966979E-3</v>
+      </c>
+      <c r="Y6">
+        <v>-2.6080680502935751E-3</v>
+      </c>
+      <c r="Z6">
+        <v>-2.9618694700311397E-3</v>
+      </c>
+      <c r="AA6">
+        <v>-2.4131256271751021E-3</v>
+      </c>
+      <c r="AB6">
+        <v>-2.5403853581080901E-3</v>
+      </c>
+      <c r="AC6">
+        <v>-3.1100859671563028E-3</v>
+      </c>
+      <c r="AD6">
+        <v>-2.6245936890513973E-3</v>
+      </c>
+      <c r="AE6">
+        <v>-2.6116758737684456E-3</v>
+      </c>
+      <c r="AF6">
+        <v>-2.6721725891597826E-3</v>
+      </c>
+      <c r="AG6">
+        <v>-2.490994283554775E-3</v>
+      </c>
+      <c r="AH6">
+        <v>-2.4885076329222515E-3</v>
+      </c>
+      <c r="AI6">
+        <v>-2.9680365040158554E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>-2.6224098562613331E-3</v>
+      </c>
+      <c r="AK6">
+        <v>-2.9605266279105532E-3</v>
+      </c>
+      <c r="AL6">
+        <v>-2.4459500751967426E-3</v>
+      </c>
+      <c r="AM6">
+        <v>-2.5720305572939262E-3</v>
+      </c>
+      <c r="AN6">
+        <v>-2.5778997900484592E-3</v>
+      </c>
+      <c r="AO6">
+        <v>-2.4751607436615032E-3</v>
+      </c>
+      <c r="AP6">
+        <v>-2.5357538322863756E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>-2.722492928004409E-3</v>
+      </c>
+      <c r="AR6">
+        <v>-2.5058247041185645E-3</v>
+      </c>
+      <c r="AS6">
+        <v>-2.5038808233499698E-3</v>
+      </c>
+      <c r="AT6">
+        <v>-3.6066432041326922E-3</v>
+      </c>
+      <c r="AU6">
+        <v>-3.0622609513715521E-3</v>
+      </c>
+      <c r="AV6">
+        <v>-2.7800204922162511E-3</v>
+      </c>
+      <c r="AW6">
+        <v>-2.5777183370221551E-3</v>
+      </c>
+      <c r="AX6">
+        <v>-2.6072191408061966E-3</v>
+      </c>
+      <c r="AY6">
+        <v>-2.8345977798313348E-3</v>
+      </c>
+      <c r="AZ6">
+        <v>-3.0141002452814319E-3</v>
+      </c>
+      <c r="BA6">
+        <v>-3.0903888436375551E-3</v>
+      </c>
+      <c r="BB6">
+        <v>-2.7405712772845983E-3</v>
+      </c>
+      <c r="BC6">
+        <v>-3.0070513866300411E-3</v>
+      </c>
+      <c r="BD6">
+        <v>-3.0461547727084612E-3</v>
+      </c>
+      <c r="BE6">
+        <v>-2.4899762264825706E-3</v>
+      </c>
+      <c r="BF6">
+        <v>-3.1259218775643066E-3</v>
+      </c>
+      <c r="BG6">
+        <v>-2.9504208044575531E-3</v>
+      </c>
+      <c r="BH6">
+        <v>-2.5759107896980065E-3</v>
+      </c>
+      <c r="BI6">
+        <v>-2.5860039502558466E-3</v>
+      </c>
+      <c r="BJ6">
+        <v>-2.4037792611952924E-3</v>
+      </c>
+      <c r="BK6">
+        <v>-3.1935659736191161E-3</v>
+      </c>
+      <c r="BL6">
+        <v>-2.4796239448593885E-3</v>
+      </c>
+      <c r="BM6">
+        <v>-3.2503729930432922E-3</v>
+      </c>
+      <c r="BN6">
+        <v>-2.599260101221581E-3</v>
+      </c>
+      <c r="BO6">
+        <v>-2.8028259360457098E-3</v>
+      </c>
+      <c r="BP6">
+        <v>-2.6245164774738173E-3</v>
+      </c>
+      <c r="BQ6">
+        <v>-3.1745088174640482E-3</v>
+      </c>
+      <c r="BR6">
+        <v>-3.0424323880510534E-3</v>
+      </c>
+      <c r="BS6">
+        <v>-2.5174316862222779E-3</v>
+      </c>
+      <c r="BT6">
+        <v>-3.4015138530930572E-3</v>
+      </c>
+      <c r="BU6">
+        <v>-3.0816336436389688E-3</v>
+      </c>
+      <c r="BV6">
+        <v>-2.7039191230761785E-3</v>
+      </c>
+      <c r="BW6">
+        <v>-2.8209224141188321E-3</v>
+      </c>
+      <c r="BX6">
+        <v>-2.5859557101871392E-3</v>
+      </c>
+      <c r="BY6">
+        <v>-2.6395777941845525E-3</v>
+      </c>
+      <c r="BZ6">
+        <v>-2.5627287251867074E-3</v>
+      </c>
+      <c r="CA6">
+        <v>-2.6562591627012316E-3</v>
+      </c>
+      <c r="CB6">
+        <v>-2.5872277302758412E-3</v>
+      </c>
+      <c r="CC6">
+        <v>-3.3266103982820322E-3</v>
+      </c>
+      <c r="CD6">
+        <v>-2.7677796387946844E-3</v>
+      </c>
+      <c r="CE6">
+        <v>-2.5034735573555697E-3</v>
+      </c>
+      <c r="CF6">
+        <v>-2.5657765758360274E-3</v>
+      </c>
+      <c r="CG6">
+        <v>-3.607380277557659E-3</v>
+      </c>
+      <c r="CH6">
+        <v>-2.550725127495664E-3</v>
+      </c>
+      <c r="CI6">
+        <v>-2.5028237704084058E-3</v>
+      </c>
+      <c r="CJ6">
+        <v>-3.3778481175848031E-3</v>
+      </c>
+      <c r="CK6">
+        <v>-2.583227148594274E-3</v>
+      </c>
+      <c r="CL6">
+        <v>-2.5346847242367753E-3</v>
+      </c>
+      <c r="CM6">
+        <v>-2.6377965708792206E-3</v>
+      </c>
+      <c r="CN6">
+        <v>-2.4825795575764173E-3</v>
+      </c>
+      <c r="CO6">
+        <v>-2.5145555999280108E-3</v>
+      </c>
+      <c r="CP6">
+        <v>-3.3407791450557503E-3</v>
+      </c>
+      <c r="CQ6">
+        <v>-2.965229205294346E-3</v>
+      </c>
+      <c r="CR6">
+        <v>-2.7727409520915259E-3</v>
+      </c>
+      <c r="CS6">
+        <v>-2.8422065050995714E-3</v>
+      </c>
+      <c r="CT6">
+        <v>-2.5160880632314714E-3</v>
+      </c>
+      <c r="CU6">
+        <v>-3.8387930623971942E-3</v>
+      </c>
+      <c r="CV6">
+        <v>-2.9352860276796941E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-3.1785488217156372E-3</v>
+      </c>
+      <c r="B7">
+        <v>-2.8155285024720421E-3</v>
+      </c>
+      <c r="C7">
+        <v>-2.598001042743589E-3</v>
+      </c>
+      <c r="D7">
+        <v>-2.4501384470499935E-3</v>
+      </c>
+      <c r="E7">
+        <v>-2.6318194778169649E-3</v>
+      </c>
+      <c r="F7">
+        <v>-2.9576903681785599E-3</v>
+      </c>
+      <c r="G7">
+        <v>-2.8188538230284632E-3</v>
+      </c>
+      <c r="H7">
+        <v>-2.5825970136545617E-3</v>
+      </c>
+      <c r="I7">
+        <v>-2.5945573935320485E-3</v>
+      </c>
+      <c r="J7">
+        <v>-2.8886546080189681E-3</v>
+      </c>
+      <c r="K7">
+        <v>-2.6421331247056907E-3</v>
+      </c>
+      <c r="L7">
+        <v>-2.7047593402991566E-3</v>
+      </c>
+      <c r="M7">
+        <v>-2.8734757606182137E-3</v>
+      </c>
+      <c r="N7">
+        <v>-3.0652332572782617E-3</v>
+      </c>
+      <c r="O7">
+        <v>-2.4698539043475384E-3</v>
+      </c>
+      <c r="P7">
+        <v>-3.2587993158153623E-3</v>
+      </c>
+      <c r="Q7">
+        <v>-3.0518046267034985E-3</v>
+      </c>
+      <c r="R7">
+        <v>-3.0893885345378395E-3</v>
+      </c>
+      <c r="S7">
+        <v>-3.086082502163157E-3</v>
+      </c>
+      <c r="T7">
+        <v>-3.1180550287542414E-3</v>
+      </c>
+      <c r="U7">
+        <v>-2.5448163280491301E-3</v>
+      </c>
+      <c r="V7">
+        <v>-2.7221909754953457E-3</v>
+      </c>
+      <c r="W7">
+        <v>-3.412192208804499E-3</v>
+      </c>
+      <c r="X7">
+        <v>-2.7307538441033873E-3</v>
+      </c>
+      <c r="Y7">
+        <v>-2.6178534391619814E-3</v>
+      </c>
+      <c r="Z7">
+        <v>-2.985056179640044E-3</v>
+      </c>
+      <c r="AA7">
+        <v>-2.4099902965299884E-3</v>
+      </c>
+      <c r="AB7">
+        <v>-2.5409309088883264E-3</v>
+      </c>
+      <c r="AC7">
+        <v>-3.0778444381612843E-3</v>
+      </c>
+      <c r="AD7">
+        <v>-2.6373535910990836E-3</v>
+      </c>
+      <c r="AE7">
+        <v>-2.6150494953129564E-3</v>
+      </c>
+      <c r="AF7">
+        <v>-2.6887838188901993E-3</v>
+      </c>
+      <c r="AG7">
+        <v>-2.4986440371613486E-3</v>
+      </c>
+      <c r="AH7">
+        <v>-2.4931168644051422E-3</v>
+      </c>
+      <c r="AI7">
+        <v>-2.996855007342856E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>-2.6203764170619906E-3</v>
+      </c>
+      <c r="AK7">
+        <v>-2.9306430263487892E-3</v>
+      </c>
+      <c r="AL7">
+        <v>-2.4410663066181766E-3</v>
+      </c>
+      <c r="AM7">
+        <v>-2.5819999938326006E-3</v>
+      </c>
+      <c r="AN7">
+        <v>-2.5598534822087143E-3</v>
+      </c>
+      <c r="AO7">
+        <v>-2.4719746576568158E-3</v>
+      </c>
+      <c r="AP7">
+        <v>-2.5344772415917607E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>-2.734136390412637E-3</v>
+      </c>
+      <c r="AR7">
+        <v>-2.5078067881430374E-3</v>
+      </c>
+      <c r="AS7">
+        <v>-2.4925766302247099E-3</v>
+      </c>
+      <c r="AT7">
+        <v>-3.563259785590633E-3</v>
+      </c>
+      <c r="AU7">
+        <v>-3.0278592248523307E-3</v>
+      </c>
+      <c r="AV7">
+        <v>-2.7532273285666908E-3</v>
+      </c>
+      <c r="AW7">
+        <v>-2.5835236777403533E-3</v>
+      </c>
+      <c r="AX7">
+        <v>-2.6150489082800714E-3</v>
+      </c>
+      <c r="AY7">
+        <v>-2.8069408792992718E-3</v>
+      </c>
+      <c r="AZ7">
+        <v>-2.9835747107360712E-3</v>
+      </c>
+      <c r="BA7">
+        <v>-3.0554257271518375E-3</v>
+      </c>
+      <c r="BB7">
+        <v>-2.7168855805611287E-3</v>
+      </c>
+      <c r="BC7">
+        <v>-3.0237874246792171E-3</v>
+      </c>
+      <c r="BD7">
+        <v>-3.067332738306291E-3</v>
+      </c>
+      <c r="BE7">
+        <v>-2.4817710598227039E-3</v>
+      </c>
+      <c r="BF7">
+        <v>-3.152894804540762E-3</v>
+      </c>
+      <c r="BG7">
+        <v>-2.9182623663573269E-3</v>
+      </c>
+      <c r="BH7">
+        <v>-2.5846115566979535E-3</v>
+      </c>
+      <c r="BI7">
+        <v>-2.6009291484384136E-3</v>
+      </c>
+      <c r="BJ7">
+        <v>-2.3983176684149385E-3</v>
+      </c>
+      <c r="BK7">
+        <v>-3.2248678236858797E-3</v>
+      </c>
+      <c r="BL7">
+        <v>-2.4760971941889748E-3</v>
+      </c>
+      <c r="BM7">
+        <v>-3.2799616088985931E-3</v>
+      </c>
+      <c r="BN7">
+        <v>-2.6103362778963097E-3</v>
+      </c>
+      <c r="BO7">
+        <v>-2.7812020388781554E-3</v>
+      </c>
+      <c r="BP7">
+        <v>-2.6331807709250184E-3</v>
+      </c>
+      <c r="BQ7">
+        <v>-3.1420846743897444E-3</v>
+      </c>
+      <c r="BR7">
+        <v>-3.0125682420182125E-3</v>
+      </c>
+      <c r="BS7">
+        <v>-2.5067945409469744E-3</v>
+      </c>
+      <c r="BT7">
+        <v>-3.4374758855072888E-3</v>
+      </c>
+      <c r="BU7">
+        <v>-3.1112337489519934E-3</v>
+      </c>
+      <c r="BV7">
+        <v>-2.7241176105058489E-3</v>
+      </c>
+      <c r="BW7">
+        <v>-2.8418714261051244E-3</v>
+      </c>
+      <c r="BX7">
+        <v>-2.5947761361644929E-3</v>
+      </c>
+      <c r="BY7">
+        <v>-2.6520049304177709E-3</v>
+      </c>
+      <c r="BZ7">
+        <v>-2.570351929509389E-3</v>
+      </c>
+      <c r="CA7">
+        <v>-2.6523647184576787E-3</v>
+      </c>
+      <c r="CB7">
+        <v>-2.5736647050151225E-3</v>
+      </c>
+      <c r="CC7">
+        <v>-3.2865804974565281E-3</v>
+      </c>
+      <c r="CD7">
+        <v>-2.7861131293848906E-3</v>
+      </c>
+      <c r="CE7">
+        <v>-2.4953865722924145E-3</v>
+      </c>
+      <c r="CF7">
+        <v>-2.5579836033307974E-3</v>
+      </c>
+      <c r="CG7">
+        <v>-3.6435983164595461E-3</v>
+      </c>
+      <c r="CH7">
+        <v>-2.5618323475745221E-3</v>
+      </c>
+      <c r="CI7">
+        <v>-2.4924124932351977E-3</v>
+      </c>
+      <c r="CJ7">
+        <v>-3.3413390449877306E-3</v>
+      </c>
+      <c r="CK7">
+        <v>-2.5717341414697088E-3</v>
+      </c>
+      <c r="CL7">
+        <v>-2.5436636707106175E-3</v>
+      </c>
+      <c r="CM7">
+        <v>-2.6294630246587901E-3</v>
+      </c>
+      <c r="CN7">
+        <v>-2.4851258877412745E-3</v>
+      </c>
+      <c r="CO7">
+        <v>-2.5148254140465076E-3</v>
+      </c>
+      <c r="CP7">
+        <v>-3.3708902988312662E-3</v>
+      </c>
+      <c r="CQ7">
+        <v>-2.9380588266503336E-3</v>
+      </c>
+      <c r="CR7">
+        <v>-2.7490617250807612E-3</v>
+      </c>
+      <c r="CS7">
+        <v>-2.8130373380565051E-3</v>
+      </c>
+      <c r="CT7">
+        <v>-2.5182302453921946E-3</v>
+      </c>
+      <c r="CU7">
+        <v>-3.7945570598030454E-3</v>
+      </c>
+      <c r="CV7">
+        <v>-2.9050029598588732E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.1114056996802593E-3</v>
+      </c>
+      <c r="B8">
+        <v>-2.8873262895402936E-3</v>
+      </c>
+      <c r="C8">
+        <v>-2.5793340609568749E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.4709311798643777E-3</v>
+      </c>
+      <c r="E8">
+        <v>-2.674571113427606E-3</v>
+      </c>
+      <c r="F8">
+        <v>-2.9079161003994452E-3</v>
+      </c>
+      <c r="G8">
+        <v>-2.7727560113506799E-3</v>
+      </c>
+      <c r="H8">
+        <v>-2.6262438713370523E-3</v>
+      </c>
+      <c r="I8">
+        <v>-2.6200518772935199E-3</v>
+      </c>
+      <c r="J8">
+        <v>-2.9592062024972002E-3</v>
+      </c>
+      <c r="K8">
+        <v>-2.6126098226651228E-3</v>
+      </c>
+      <c r="L8">
+        <v>-2.7451671078554444E-3</v>
+      </c>
+      <c r="M8">
+        <v>-2.9326117627297122E-3</v>
+      </c>
+      <c r="N8">
+        <v>-3.0058065108104341E-3</v>
+      </c>
+      <c r="O8">
+        <v>-2.4816685723124355E-3</v>
+      </c>
+      <c r="P8">
+        <v>-3.1878170888199331E-3</v>
+      </c>
+      <c r="Q8">
+        <v>-2.9987991339662655E-3</v>
+      </c>
+      <c r="R8">
+        <v>-3.0286971098311796E-3</v>
+      </c>
+      <c r="S8">
+        <v>-3.1778423600910682E-3</v>
+      </c>
+      <c r="T8">
+        <v>-3.1981127333174375E-3</v>
+      </c>
+      <c r="U8">
+        <v>-2.5767973216876232E-3</v>
+      </c>
+      <c r="V8">
+        <v>-2.7698486070308085E-3</v>
+      </c>
+      <c r="W8">
+        <v>-3.3364682375413694E-3</v>
+      </c>
+      <c r="X8">
+        <v>-2.6986824486746595E-3</v>
+      </c>
+      <c r="Y8">
+        <v>-2.5951111602616557E-3</v>
+      </c>
+      <c r="Z8">
+        <v>-2.9302010920377545E-3</v>
+      </c>
+      <c r="AA8">
+        <v>-2.4173585034406252E-3</v>
+      </c>
+      <c r="AB8">
+        <v>-2.5417499549908401E-3</v>
+      </c>
+      <c r="AC8">
+        <v>-3.1631292211508053E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-2.6063120985855806E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-2.5902642447917469E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-2.6560148323053687E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-2.4916548505676791E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-2.4820596952250824E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-2.9412111229871539E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-2.6291246150327604E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-3.0112480086894968E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-2.4455561086680444E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-2.5644658858513135E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-2.5914759209998178E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-2.4940369954495048E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-2.5428825075154197E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-2.6949770786678469E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-2.5101481937365613E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-2.5244969214842428E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-3.6730287049069471E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-3.1089165620269681E-3</v>
+      </c>
+      <c r="AV8">
+        <v>-2.8163291596924015E-3</v>
+      </c>
+      <c r="AW8">
+        <v>-2.5687757740618052E-3</v>
+      </c>
+      <c r="AX8">
+        <v>-2.5867012012063366E-3</v>
+      </c>
+      <c r="AY8">
+        <v>-2.8703199400598929E-3</v>
+      </c>
+      <c r="AZ8">
+        <v>-3.0630697186546361E-3</v>
+      </c>
+      <c r="BA8">
+        <v>-3.1352578763135784E-3</v>
+      </c>
+      <c r="BB8">
+        <v>-2.7608902795576411E-3</v>
+      </c>
+      <c r="BC8">
+        <v>-2.9677282437857153E-3</v>
+      </c>
+      <c r="BD8">
+        <v>-3.0120932655158723E-3</v>
+      </c>
+      <c r="BE8">
+        <v>-2.4910677604572029E-3</v>
+      </c>
+      <c r="BF8">
+        <v>-3.0875785488786093E-3</v>
+      </c>
+      <c r="BG8">
+        <v>-2.9948588779852756E-3</v>
+      </c>
+      <c r="BH8">
+        <v>-2.5604488397774914E-3</v>
+      </c>
+      <c r="BI8">
+        <v>-2.5754617917884714E-3</v>
+      </c>
+      <c r="BJ8">
+        <v>-2.412256251959928E-3</v>
+      </c>
+      <c r="BK8">
+        <v>-3.1581281429425923E-3</v>
+      </c>
+      <c r="BL8">
+        <v>-2.4770699051618731E-3</v>
+      </c>
+      <c r="BM8">
+        <v>-3.2098786149217531E-3</v>
+      </c>
+      <c r="BN8">
+        <v>-2.5888614586202447E-3</v>
+      </c>
+      <c r="BO8">
+        <v>-2.849851646904834E-3</v>
+      </c>
+      <c r="BP8">
+        <v>-2.6047379551833879E-3</v>
+      </c>
+      <c r="BQ8">
+        <v>-3.2265035510599511E-3</v>
+      </c>
+      <c r="BR8">
+        <v>-3.0948184374668761E-3</v>
+      </c>
+      <c r="BS8">
+        <v>-2.531457211885258E-3</v>
+      </c>
+      <c r="BT8">
+        <v>-3.3640377664341413E-3</v>
+      </c>
+      <c r="BU8">
+        <v>-3.0512515972603992E-3</v>
+      </c>
+      <c r="BV8">
+        <v>-2.6853860319204972E-3</v>
+      </c>
+      <c r="BW8">
+        <v>-2.7952807415353581E-3</v>
+      </c>
+      <c r="BX8">
+        <v>-2.5714324217114355E-3</v>
+      </c>
+      <c r="BY8">
+        <v>-2.6256980938929096E-3</v>
+      </c>
+      <c r="BZ8">
+        <v>-2.5483797184986676E-3</v>
+      </c>
+      <c r="CA8">
+        <v>-2.6767205101592166E-3</v>
+      </c>
+      <c r="CB8">
+        <v>-2.6000360051000324E-3</v>
+      </c>
+      <c r="CC8">
+        <v>-3.381607059852184E-3</v>
+      </c>
+      <c r="CD8">
+        <v>-2.7460856015275367E-3</v>
+      </c>
+      <c r="CE8">
+        <v>-2.5128705015161575E-3</v>
+      </c>
+      <c r="CF8">
+        <v>-2.5684362282221563E-3</v>
+      </c>
+      <c r="CG8">
+        <v>-3.5576087782386075E-3</v>
+      </c>
+      <c r="CH8">
+        <v>-2.5385998054580565E-3</v>
+      </c>
+      <c r="CI8">
+        <v>-2.5094495275328798E-3</v>
+      </c>
+      <c r="CJ8">
+        <v>-3.4414893262145192E-3</v>
+      </c>
+      <c r="CK8">
+        <v>-2.5958126116283212E-3</v>
+      </c>
+      <c r="CL8">
+        <v>-2.5343296324030029E-3</v>
+      </c>
+      <c r="CM8">
+        <v>-2.6678377341749549E-3</v>
+      </c>
+      <c r="CN8">
+        <v>-2.4816631930003135E-3</v>
+      </c>
+      <c r="CO8">
+        <v>-2.5035057500819692E-3</v>
+      </c>
+      <c r="CP8">
+        <v>-3.3024336367451159E-3</v>
+      </c>
+      <c r="CQ8">
+        <v>-3.0135931446012864E-3</v>
+      </c>
+      <c r="CR8">
+        <v>-2.8125652060627206E-3</v>
+      </c>
+      <c r="CS8">
+        <v>-2.8772837272931272E-3</v>
+      </c>
+      <c r="CT8">
+        <v>-2.5206609202587382E-3</v>
+      </c>
+      <c r="CU8">
+        <v>-3.9158011989076803E-3</v>
+      </c>
+      <c r="CV8">
+        <v>-2.9672110808277056E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-3.0609707185553971E-3</v>
+      </c>
+      <c r="B9">
+        <v>-2.926774442644707E-3</v>
+      </c>
+      <c r="C9">
+        <v>-2.5571745716233755E-3</v>
+      </c>
+      <c r="D9">
+        <v>-2.4883611900423891E-3</v>
+      </c>
+      <c r="E9">
+        <v>-2.7106015694239659E-3</v>
+      </c>
+      <c r="F9">
+        <v>-2.8773581842583312E-3</v>
+      </c>
+      <c r="G9">
+        <v>-2.7527531015365397E-3</v>
+      </c>
+      <c r="H9">
+        <v>-2.6602364153302666E-3</v>
+      </c>
+      <c r="I9">
+        <v>-2.6483963537531708E-3</v>
+      </c>
+      <c r="J9">
+        <v>-3.0088744949416345E-3</v>
+      </c>
+      <c r="K9">
+        <v>-2.5890612735132465E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.7872113089895071E-3</v>
+      </c>
+      <c r="M9">
+        <v>-2.981477707304751E-3</v>
+      </c>
+      <c r="N9">
+        <v>-2.9588187980198284E-3</v>
+      </c>
+      <c r="O9">
+        <v>-2.5027813443310007E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.1430599424926891E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-2.942602817919518E-3</v>
+      </c>
+      <c r="R9">
+        <v>-2.9810936710360069E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.2304940683208399E-3</v>
+      </c>
+      <c r="T9">
+        <v>-3.2601951496860999E-3</v>
+      </c>
+      <c r="U9">
+        <v>-2.5941044427604892E-3</v>
+      </c>
+      <c r="V9">
+        <v>-2.8055630067667023E-3</v>
+      </c>
+      <c r="W9">
+        <v>-3.2858869681807487E-3</v>
+      </c>
+      <c r="X9">
+        <v>-2.6698317605877929E-3</v>
+      </c>
+      <c r="Y9">
+        <v>-2.5636001302984392E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.8851986442383817E-3</v>
+      </c>
+      <c r="AA9">
+        <v>-2.4195044153319926E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-2.5512141232531577E-3</v>
+      </c>
+      <c r="AC9">
+        <v>-3.2220749593780493E-3</v>
+      </c>
+      <c r="AD9">
+        <v>-2.5789639271635505E-3</v>
+      </c>
+      <c r="AE9">
+        <v>-2.5741539490070162E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-2.621488783504581E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-2.4780546931114449E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-2.4789545778351298E-3</v>
+      </c>
+      <c r="AI9">
+        <v>-2.8968499361533267E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-2.6211264646478394E-3</v>
+      </c>
+      <c r="AK9">
+        <v>-3.0584930584330577E-3</v>
+      </c>
+      <c r="AL9">
+        <v>-2.4525288228328525E-3</v>
+      </c>
+      <c r="AM9">
+        <v>-2.5386488355472118E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-2.6131709484672866E-3</v>
+      </c>
+      <c r="AO9">
+        <v>-2.5011016499259151E-3</v>
+      </c>
+      <c r="AP9">
+        <v>-2.5359144198274456E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>-2.6754951433465082E-3</v>
+      </c>
+      <c r="AR9">
+        <v>-2.4940150515685238E-3</v>
+      </c>
+      <c r="AS9">
+        <v>-2.5437449582997509E-3</v>
+      </c>
+      <c r="AT9">
+        <v>-3.7480320120889137E-3</v>
+      </c>
+      <c r="AU9">
+        <v>-3.1649542234269312E-3</v>
+      </c>
+      <c r="AV9">
+        <v>-2.8576602834255549E-3</v>
+      </c>
+      <c r="AW9">
+        <v>-2.5472595888206386E-3</v>
+      </c>
+      <c r="AX9">
+        <v>-2.570668627444875E-3</v>
+      </c>
+      <c r="AY9">
+        <v>-2.9179403528745507E-3</v>
+      </c>
+      <c r="AZ9">
+        <v>-3.1178729319394625E-3</v>
+      </c>
+      <c r="BA9">
+        <v>-3.1894190284168936E-3</v>
+      </c>
+      <c r="BB9">
+        <v>-2.8062282581677632E-3</v>
+      </c>
+      <c r="BC9">
+        <v>-2.9283064152991673E-3</v>
+      </c>
+      <c r="BD9">
+        <v>-2.9589541049264674E-3</v>
+      </c>
+      <c r="BE9">
+        <v>-2.5111346393784833E-3</v>
+      </c>
+      <c r="BF9">
+        <v>-3.0355954738058525E-3</v>
+      </c>
+      <c r="BG9">
+        <v>-3.0424164205023717E-3</v>
+      </c>
+      <c r="BH9">
+        <v>-2.537456036767654E-3</v>
+      </c>
+      <c r="BI9">
+        <v>-2.5519816444543454E-3</v>
+      </c>
+      <c r="BJ9">
+        <v>-2.4170182608125044E-3</v>
+      </c>
+      <c r="BK9">
+        <v>-3.1000151782340801E-3</v>
+      </c>
+      <c r="BL9">
+        <v>-2.4836182337164602E-3</v>
+      </c>
+      <c r="BM9">
+        <v>-3.1498751853016433E-3</v>
+      </c>
+      <c r="BN9">
+        <v>-2.5585987167106956E-3</v>
+      </c>
+      <c r="BO9">
+        <v>-2.8840577888568455E-3</v>
+      </c>
+      <c r="BP9">
+        <v>-2.5838335912196507E-3</v>
+      </c>
+      <c r="BQ9">
+        <v>-3.2901796032461113E-3</v>
+      </c>
+      <c r="BR9">
+        <v>-3.1500875293401258E-3</v>
+      </c>
+      <c r="BS9">
+        <v>-2.5622474773026238E-3</v>
+      </c>
+      <c r="BT9">
+        <v>-3.2940187551981932E-3</v>
+      </c>
+      <c r="BU9">
+        <v>-2.9942842792511741E-3</v>
+      </c>
+      <c r="BV9">
+        <v>-2.6636991104869172E-3</v>
+      </c>
+      <c r="BW9">
+        <v>-2.7529871547853249E-3</v>
+      </c>
+      <c r="BX9">
+        <v>-2.5444664201236364E-3</v>
+      </c>
+      <c r="BY9">
+        <v>-2.5994976614210439E-3</v>
+      </c>
+      <c r="BZ9">
+        <v>-2.536954925602181E-3</v>
+      </c>
+      <c r="CA9">
+        <v>-2.6750385154092051E-3</v>
+      </c>
+      <c r="CB9">
+        <v>-2.6134676874318488E-3</v>
+      </c>
+      <c r="CC9">
+        <v>-3.447550882783282E-3</v>
+      </c>
+      <c r="CD9">
+        <v>-2.7055500874321676E-3</v>
+      </c>
+      <c r="CE9">
+        <v>-2.5215759997132057E-3</v>
+      </c>
+      <c r="CF9">
+        <v>-2.5712896230452075E-3</v>
+      </c>
+      <c r="CG9">
+        <v>-3.4965305561631796E-3</v>
+      </c>
+      <c r="CH9">
+        <v>-2.515064934892822E-3</v>
+      </c>
+      <c r="CI9">
+        <v>-2.5193290180301783E-3</v>
+      </c>
+      <c r="CJ9">
+        <v>-3.5078514204232533E-3</v>
+      </c>
+      <c r="CK9">
+        <v>-2.6038348202165116E-3</v>
+      </c>
+      <c r="CL9">
+        <v>-2.5202780359845577E-3</v>
+      </c>
+      <c r="CM9">
+        <v>-2.6755982216510044E-3</v>
+      </c>
+      <c r="CN9">
+        <v>-2.4878083118955807E-3</v>
+      </c>
+      <c r="CO9">
+        <v>-2.5104624857477374E-3</v>
+      </c>
+      <c r="CP9">
+        <v>-3.2314664466874992E-3</v>
+      </c>
+      <c r="CQ9">
+        <v>-3.0663357396537088E-3</v>
+      </c>
+      <c r="CR9">
+        <v>-2.855200129213923E-3</v>
+      </c>
+      <c r="CS9">
+        <v>-2.9259834559191085E-3</v>
+      </c>
+      <c r="CT9">
+        <v>-2.5321413987715023E-3</v>
+      </c>
+      <c r="CU9">
+        <v>-3.9982794318554667E-3</v>
+      </c>
+      <c r="CV9">
+        <v>-3.0144046710191084E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-3.0641829994734518E-3</v>
+      </c>
+      <c r="B10">
+        <v>-2.9372337749359692E-3</v>
+      </c>
+      <c r="C10">
+        <v>-2.5585500752649277E-3</v>
+      </c>
+      <c r="D10">
+        <v>-2.4890418106513416E-3</v>
+      </c>
+      <c r="E10">
+        <v>-2.7084430644420863E-3</v>
+      </c>
+      <c r="F10">
+        <v>-2.8755454133614633E-3</v>
+      </c>
+      <c r="G10">
+        <v>-2.748178958946607E-3</v>
+      </c>
+      <c r="H10">
+        <v>-2.6597198489116281E-3</v>
+      </c>
+      <c r="I10">
+        <v>-2.6496811839498767E-3</v>
+      </c>
+      <c r="J10">
+        <v>-3.0086372261167488E-3</v>
+      </c>
+      <c r="K10">
+        <v>-2.5909358211162678E-3</v>
+      </c>
+      <c r="L10">
+        <v>-2.7826094731492231E-3</v>
+      </c>
+      <c r="M10">
+        <v>-2.9793456393531182E-3</v>
+      </c>
+      <c r="N10">
+        <v>-2.9578130897663364E-3</v>
+      </c>
+      <c r="O10">
+        <v>-2.5021133818803752E-3</v>
+      </c>
+      <c r="P10">
+        <v>-3.142020369489146E-3</v>
+      </c>
+      <c r="Q10">
+        <v>-2.9526764144033211E-3</v>
+      </c>
+      <c r="R10">
+        <v>-2.9859592583489697E-3</v>
+      </c>
+      <c r="S10">
+        <v>-3.2426736229894354E-3</v>
+      </c>
+      <c r="T10">
+        <v>-3.2598524836049679E-3</v>
+      </c>
+      <c r="U10">
+        <v>-2.5966026118219997E-3</v>
+      </c>
+      <c r="V10">
+        <v>-2.809592498966707E-3</v>
+      </c>
+      <c r="W10">
+        <v>-3.2844698426167489E-3</v>
+      </c>
+      <c r="X10">
+        <v>-2.6749268215043235E-3</v>
+      </c>
+      <c r="Y10">
+        <v>-2.5722449992329243E-3</v>
+      </c>
+      <c r="Z10">
+        <v>-2.888060794162053E-3</v>
+      </c>
+      <c r="AA10">
+        <v>-2.4225105016970438E-3</v>
+      </c>
+      <c r="AB10">
+        <v>-2.5529130528192776E-3</v>
+      </c>
+      <c r="AC10">
+        <v>-3.2303780816473992E-3</v>
+      </c>
+      <c r="AD10">
+        <v>-2.5816038944852363E-3</v>
+      </c>
+      <c r="AE10">
+        <v>-2.5686754053700581E-3</v>
+      </c>
+      <c r="AF10">
+        <v>-2.6286413908072344E-3</v>
+      </c>
+      <c r="AG10">
+        <v>-2.4863906676928127E-3</v>
+      </c>
+      <c r="AH10">
+        <v>-2.4787095813826876E-3</v>
+      </c>
+      <c r="AI10">
+        <v>-2.9039126797037605E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>-2.6299624560713135E-3</v>
+      </c>
+      <c r="AK10">
+        <v>-3.068585039060327E-3</v>
+      </c>
+      <c r="AL10">
+        <v>-2.4484260504077167E-3</v>
+      </c>
+      <c r="AM10">
+        <v>-2.5467629979914462E-3</v>
+      </c>
+      <c r="AN10">
+        <v>-2.6093289166517404E-3</v>
+      </c>
+      <c r="AO10">
+        <v>-2.5092595545119548E-3</v>
+      </c>
+      <c r="AP10">
+        <v>-2.5425824595936533E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>-2.6671320679732425E-3</v>
+      </c>
+      <c r="AR10">
+        <v>-2.5037226242927103E-3</v>
+      </c>
+      <c r="AS10">
+        <v>-2.5493693408544954E-3</v>
+      </c>
+      <c r="AT10">
+        <v>-3.7550483129128692E-3</v>
+      </c>
+      <c r="AU10">
+        <v>-3.1691233210020572E-3</v>
+      </c>
+      <c r="AV10">
+        <v>-2.8610056806396438E-3</v>
+      </c>
+      <c r="AW10">
+        <v>-2.5547119276275376E-3</v>
+      </c>
+      <c r="AX10">
+        <v>-2.5665642945484428E-3</v>
+      </c>
+      <c r="AY10">
+        <v>-2.918536552215651E-3</v>
+      </c>
+      <c r="AZ10">
+        <v>-3.1242884821766695E-3</v>
+      </c>
+      <c r="BA10">
+        <v>-3.1893031918772481E-3</v>
+      </c>
+      <c r="BB10">
+        <v>-2.800850371230268E-3</v>
+      </c>
+      <c r="BC10">
+        <v>-2.9232120647096778E-3</v>
+      </c>
+      <c r="BD10">
+        <v>-2.9645664971394182E-3</v>
+      </c>
+      <c r="BE10">
+        <v>-2.5052720317595466E-3</v>
+      </c>
+      <c r="BF10">
+        <v>-3.0379650726157698E-3</v>
+      </c>
+      <c r="BG10">
+        <v>-3.0452430532687275E-3</v>
+      </c>
+      <c r="BH10">
+        <v>-2.5398889906125509E-3</v>
+      </c>
+      <c r="BI10">
+        <v>-2.5570062254008227E-3</v>
+      </c>
+      <c r="BJ10">
+        <v>-2.4209545365599522E-3</v>
+      </c>
+      <c r="BK10">
+        <v>-3.1063470078837659E-3</v>
+      </c>
+      <c r="BL10">
+        <v>-2.4789887015123297E-3</v>
+      </c>
+      <c r="BM10">
+        <v>-3.1557386294887866E-3</v>
+      </c>
+      <c r="BN10">
+        <v>-2.5634740513636985E-3</v>
+      </c>
+      <c r="BO10">
+        <v>-2.8956609054608894E-3</v>
+      </c>
+      <c r="BP10">
+        <v>-2.5818577727365175E-3</v>
+      </c>
+      <c r="BQ10">
+        <v>-3.2940707069004757E-3</v>
+      </c>
+      <c r="BR10">
+        <v>-3.1574301268973309E-3</v>
+      </c>
+      <c r="BS10">
+        <v>-2.5581599928179988E-3</v>
+      </c>
+      <c r="BT10">
+        <v>-3.3042361814135468E-3</v>
+      </c>
+      <c r="BU10">
+        <v>-3.0039824686527968E-3</v>
+      </c>
+      <c r="BV10">
+        <v>-2.6665941074554447E-3</v>
+      </c>
+      <c r="BW10">
+        <v>-2.7587421285213353E-3</v>
+      </c>
+      <c r="BX10">
+        <v>-2.5493871325709756E-3</v>
+      </c>
+      <c r="BY10">
+        <v>-2.6057135493153471E-3</v>
+      </c>
+      <c r="BZ10">
+        <v>-2.5374187863795934E-3</v>
+      </c>
+      <c r="CA10">
+        <v>-2.6869404031145843E-3</v>
+      </c>
+      <c r="CB10">
+        <v>-2.614327645042411E-3</v>
+      </c>
+      <c r="CC10">
+        <v>-3.451789702854517E-3</v>
+      </c>
+      <c r="CD10">
+        <v>-2.7096136148990636E-3</v>
+      </c>
+      <c r="CE10">
+        <v>-2.5200056292844315E-3</v>
+      </c>
+      <c r="CF10">
+        <v>-2.5712650064907373E-3</v>
+      </c>
+      <c r="CG10">
+        <v>-3.4981316183824501E-3</v>
+      </c>
+      <c r="CH10">
+        <v>-2.5201029419773817E-3</v>
+      </c>
+      <c r="CI10">
+        <v>-2.5196386366789936E-3</v>
+      </c>
+      <c r="CJ10">
+        <v>-3.5172986379541382E-3</v>
+      </c>
+      <c r="CK10">
+        <v>-2.6069792751205246E-3</v>
+      </c>
+      <c r="CL10">
+        <v>-2.526568092055162E-3</v>
+      </c>
+      <c r="CM10">
+        <v>-2.6871787115240616E-3</v>
+      </c>
+      <c r="CN10">
+        <v>-2.4874834144593826E-3</v>
+      </c>
+      <c r="CO10">
+        <v>-2.5022846458816151E-3</v>
+      </c>
+      <c r="CP10">
+        <v>-3.2433916735973693E-3</v>
+      </c>
+      <c r="CQ10">
+        <v>-3.073037047072489E-3</v>
+      </c>
+      <c r="CR10">
+        <v>-2.8610166085504892E-3</v>
+      </c>
+      <c r="CS10">
+        <v>-2.9248849819390882E-3</v>
+      </c>
+      <c r="CT10">
+        <v>-2.5301231284049221E-3</v>
+      </c>
+      <c r="CU10">
+        <v>-4.0091890156593001E-3</v>
+      </c>
+      <c r="CV10">
+        <v>-3.0118846473610522E-3</v>
       </c>
     </row>
   </sheetData>

--- a/TestMNIST/MatlabCodes/temp_3.xlsx
+++ b/TestMNIST/MatlabCodes/temp_3.xlsx
@@ -404,17 +404,17 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-3.1964830088792875E-3</v>
+        <v>-7.8865977306191881E-2</v>
       </c>
       <c r="B1">
-        <v>-2.8163725484499111E-3</v>
+        <v>-6.6982901753947463E-5</v>
       </c>
       <c r="C1">
         <v>-2.604445355870429E-3</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-3.0793316117410478E-3</v>
+        <v>-6.6982901753947463E-5</v>
       </c>
       <c r="B2">
-        <v>-2.9137519869666013E-3</v>
+        <v>-5.6890300236306329E-8</v>
       </c>
       <c r="C2">
         <v>-2.5615515007766129E-3</v>
